--- a/test/resc/blank Sheet.xlsx
+++ b/test/resc/blank Sheet.xlsx
@@ -1,29 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dalto\Documents\VS Code\project-timesaver\test\resc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523510B7-8E2F-4AED-A98B-E289585353E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
-  <si>
-    <t xml:space="preserve">BLUFFTON FIRE DEPARTMENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAYROLL FOR PAID ON CALL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date Submitted</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="102">
+  <si>
+    <t>BLUFFTON FIRE DEPARTMENT</t>
+  </si>
+  <si>
+    <t>PAYROLL FOR PAID ON CALL</t>
+  </si>
+  <si>
+    <t>Date Submitted</t>
   </si>
   <si>
     <t>Run</t>
@@ -44,10 +62,10 @@
     <t>Hours</t>
   </si>
   <si>
-    <t xml:space="preserve">Admin Hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Hours</t>
+    <t>Admin Hours</t>
+  </si>
+  <si>
+    <t>Total Hours</t>
   </si>
   <si>
     <t>Rate</t>
@@ -56,16 +74,16 @@
     <t xml:space="preserve">Hourly Pay </t>
   </si>
   <si>
-    <t xml:space="preserve">Training Pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Station Hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Station Pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Officers Pay</t>
+    <t>Training Pay</t>
+  </si>
+  <si>
+    <t>Station Hours</t>
+  </si>
+  <si>
+    <t>Station Pay</t>
+  </si>
+  <si>
+    <t>Officers Pay</t>
   </si>
   <si>
     <t>Total</t>
@@ -302,10 +320,10 @@
     <t>Howe</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Craig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Denotes Captain</t>
+    <t>Chief Craig</t>
+  </si>
+  <si>
+    <t>* Denotes Captain</t>
   </si>
   <si>
     <t>N/A</t>
@@ -351,152 +369,151 @@
   </si>
   <si>
     <t>Hannie</t>
+  </si>
+  <si>
+    <t>Zoda</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
-    <numFmt numFmtId="160" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="161" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="162" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="163" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <color theme="1"/>
-      <sz val="12.000000"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <color theme="0"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <b/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <b/>
-      <color theme="0"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <i/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11.000000"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <color indexed="20"/>
-      <sz val="9.000000"/>
-      <u/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <color rgb="FF006100"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <b/>
-      <color theme="3"/>
-      <sz val="15.000000"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <b/>
-      <color theme="3"/>
-      <sz val="13.000000"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <b/>
-      <color theme="3"/>
-      <sz val="11.000000"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <color indexed="4"/>
-      <sz val="9.000000"/>
-      <u/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11.000000"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11.000000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <b/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11.000000"/>
     </font>
     <font>
-      <name val="Cambria"/>
-      <b/>
-      <color theme="3"/>
-      <sz val="18.000000"/>
+      <sz val="11"/>
+      <color indexed="2"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <name val="Calibri"/>
       <b/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
+      <sz val="12"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color indexed="2"/>
-      <sz val="11.000000"/>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <sz val="8"/>
       <name val="Arial"/>
-      <b/>
-      <sz val="12.000000"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <b/>
-      <sz val="10.000000"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <b/>
-      <sz val="8.000000"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="2"/>
       <name val="Arial"/>
-      <b/>
-      <color theme="1"/>
-      <sz val="12.000000"/>
     </font>
   </fonts>
   <fills count="32">
@@ -532,26 +549,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998000000000002"/>
-        <bgColor theme="8" tint="0.79998000000000002"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
+        <bgColor theme="8" tint="0.79995117038483843"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998000000000002"/>
-        <bgColor theme="9" tint="0.79998000000000002"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
+        <bgColor theme="9" tint="0.79995117038483843"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999000000000002"/>
-        <bgColor theme="4" tint="0.59999000000000002"/>
+        <fgColor theme="4" tint="0.59996337778862885"/>
+        <bgColor theme="4" tint="0.59996337778862885"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999000000000002"/>
-        <bgColor theme="5" tint="0.59999000000000002"/>
+        <fgColor theme="5" tint="0.59996337778862885"/>
+        <bgColor theme="5" tint="0.59996337778862885"/>
       </patternFill>
     </fill>
     <fill>
@@ -562,32 +579,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999000000000002"/>
-        <bgColor theme="7" tint="0.59999000000000002"/>
+        <fgColor theme="7" tint="0.59996337778862885"/>
+        <bgColor theme="7" tint="0.59996337778862885"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999000000000002"/>
-        <bgColor theme="8" tint="0.59999000000000002"/>
+        <fgColor theme="8" tint="0.59996337778862885"/>
+        <bgColor theme="8" tint="0.59996337778862885"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999000000000002"/>
-        <bgColor theme="9" tint="0.59999000000000002"/>
+        <fgColor theme="9" tint="0.59996337778862885"/>
+        <bgColor theme="9" tint="0.59996337778862885"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39998"/>
-        <bgColor theme="4" tint="0.39998"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor theme="4" tint="0.39997558519241921"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39998"/>
-        <bgColor theme="5" tint="0.39998"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor theme="5" tint="0.39997558519241921"/>
       </patternFill>
     </fill>
     <fill>
@@ -598,8 +615,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39998"/>
-        <bgColor theme="8" tint="0.39998"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor theme="8" tint="0.39997558519241921"/>
       </patternFill>
     </fill>
     <fill>
@@ -739,7 +756,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4" tint="0.49997999999999998"/>
+        <color theme="4" tint="0.49995422223578601"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,7 +765,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.39998"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
@@ -919,210 +936,208 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="1" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="1" fillId="4" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="1" fillId="5" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="1" fillId="6" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="1" fillId="7" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="1" fillId="8" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="1" fillId="9" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="1" fillId="10" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="1" fillId="11" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="1" fillId="12" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="1" fillId="13" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="2" fillId="14" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="2" fillId="15" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="2" fillId="10" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="2" fillId="16" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="2" fillId="17" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="2" fillId="18" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="2" fillId="19" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="2" fillId="20" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="2" fillId="21" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="2" fillId="22" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="2" fillId="23" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="2" fillId="24" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="3" fillId="25" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="4" fillId="26" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="5" fillId="27" borderId="2" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="161" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="162" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="163" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
-    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0"/>
-    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0"/>
-    <xf fontId="8" fillId="28" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="9" fillId="0" borderId="3" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1"/>
-    <xf fontId="10" fillId="0" borderId="4" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1"/>
-    <xf fontId="11" fillId="0" borderId="5" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1"/>
-    <xf fontId="11" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0"/>
-    <xf fontId="12" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0"/>
-    <xf fontId="13" fillId="29" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="14" fillId="0" borderId="6" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1"/>
-    <xf fontId="15" fillId="30" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="0" fillId="31" borderId="7" numFmtId="0" applyNumberFormat="0" applyFont="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="16" fillId="26" borderId="8" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
-    <xf fontId="17" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0"/>
-    <xf fontId="18" fillId="0" borderId="9" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1"/>
-    <xf fontId="19" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0"/>
+  <cellStyleXfs count="43">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="1" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="2" applyNumberFormat="0"/>
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="1" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0"/>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="8" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="57">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="20" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="20" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="20" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="20" fillId="0" borderId="11" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="20" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="20" fillId="0" borderId="11" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf fontId="20" fillId="0" borderId="11" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="21" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="20" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="22" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fontId="21" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fontId="21" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf fontId="20" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="11" numFmtId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="20" fillId="0" borderId="13" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="20" fillId="0" borderId="11" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf fontId="20" fillId="0" borderId="11" numFmtId="162" xfId="30" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="14" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="20" fillId="0" borderId="11" numFmtId="162" xfId="30" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf fontId="23" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="11" numFmtId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf fontId="20" fillId="0" borderId="14" numFmtId="162" xfId="30" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="20" fillId="0" borderId="12" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="14" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" xfId="28" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="20" fillId="0" borderId="14" numFmtId="162" xfId="30" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="11" numFmtId="165" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf fontId="20" fillId="0" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="20" fillId="0" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="13" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="20" fillId="0" borderId="0" numFmtId="162" xfId="30" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="20" fillId="0" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="20" fillId="0" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="18" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="15" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="20" fillId="0" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="20" fillId="0" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="13" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="20" fillId="0" borderId="11" numFmtId="162" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf fontId="20" fillId="0" borderId="13" numFmtId="162" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf fontId="20" fillId="0" borderId="13" numFmtId="162" xfId="30" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf fontId="20" fillId="0" borderId="14" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="20" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" xfId="28" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="20" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="20" fillId="0" borderId="0" numFmtId="162" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent4" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent5" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20% - Accent6" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Accent1" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Accent2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Accent3" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Accent4" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Accent5" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="40% - Accent6" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent1" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent3" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent4" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent5" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="60% - Accent6" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent1" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent2" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent3" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent4" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent5" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Accent6" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Bad" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Calculation" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Check Cell" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Currency" xfId="28" builtinId="4"/>
+    <cellStyle name="Explanatory Text" xfId="29" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Good" xfId="30" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Heading 1" xfId="31" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Heading 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Heading 3" xfId="33" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Heading 4" xfId="34" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Input" xfId="35" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Linked Cell" xfId="36" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Neutral" xfId="37" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="20% - Accent1" xfId="1"/>
-    <cellStyle name="20% - Accent2" xfId="2"/>
-    <cellStyle name="20% - Accent3" xfId="3"/>
-    <cellStyle name="20% - Accent4" xfId="4"/>
-    <cellStyle name="20% - Accent5" xfId="5"/>
-    <cellStyle name="20% - Accent6" xfId="6"/>
-    <cellStyle name="40% - Accent1" xfId="7"/>
-    <cellStyle name="40% - Accent2" xfId="8"/>
-    <cellStyle name="40% - Accent3" xfId="9"/>
-    <cellStyle name="40% - Accent4" xfId="10"/>
-    <cellStyle name="40% - Accent5" xfId="11"/>
-    <cellStyle name="40% - Accent6" xfId="12"/>
-    <cellStyle name="60% - Accent1" xfId="13"/>
-    <cellStyle name="60% - Accent2" xfId="14"/>
-    <cellStyle name="60% - Accent3" xfId="15"/>
-    <cellStyle name="60% - Accent4" xfId="16"/>
-    <cellStyle name="60% - Accent5" xfId="17"/>
-    <cellStyle name="60% - Accent6" xfId="18"/>
-    <cellStyle name="Accent1" xfId="19"/>
-    <cellStyle name="Accent2" xfId="20"/>
-    <cellStyle name="Accent3" xfId="21"/>
-    <cellStyle name="Accent4" xfId="22"/>
-    <cellStyle name="Accent5" xfId="23"/>
-    <cellStyle name="Accent6" xfId="24"/>
-    <cellStyle name="Bad" xfId="25"/>
-    <cellStyle name="Calculation" xfId="26"/>
-    <cellStyle name="Check Cell" xfId="27"/>
-    <cellStyle name="Comma" xfId="28" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="29" builtinId="6"/>
-    <cellStyle name="Currency" xfId="30" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="31" builtinId="7"/>
-    <cellStyle name="Explanatory Text" xfId="32"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9"/>
-    <cellStyle name="Good" xfId="34"/>
-    <cellStyle name="Heading 1" xfId="35"/>
-    <cellStyle name="Heading 2" xfId="36"/>
-    <cellStyle name="Heading 3" xfId="37"/>
-    <cellStyle name="Heading 4" xfId="38"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8"/>
-    <cellStyle name="Input" xfId="40"/>
-    <cellStyle name="Linked Cell" xfId="41"/>
-    <cellStyle name="Neutral" xfId="42"/>
-    <cellStyle name="Note" xfId="43"/>
-    <cellStyle name="Output" xfId="44"/>
-    <cellStyle name="Percent" xfId="45" builtinId="5"/>
-    <cellStyle name="Title" xfId="46"/>
-    <cellStyle name="Total" xfId="47"/>
-    <cellStyle name="Warning Text" xfId="48"/>
+    <cellStyle name="Note" xfId="38" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Output" xfId="39" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Title" xfId="40" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Total" xfId="41" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Warning Text" xfId="42" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1130,295 +1145,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1621,1509 +1356,1512 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="75">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A8" ySplit="7"/>
-      <selection activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="5.4444444444444402"/>
-    <col customWidth="1" min="2" max="2" width="9.7777777777777803"/>
-    <col customWidth="1" min="3" max="3" width="10.2222222222222"/>
-    <col customWidth="1" min="4" max="4" width="5.3333333333333304"/>
-    <col customWidth="1" min="5" max="5" width="6.6666666666666696"/>
-    <col customWidth="1" min="6" max="6" width="5.3333333333333304"/>
-    <col customWidth="1" min="7" max="7" width="6.1111111111111098"/>
-    <col customWidth="1" min="8" max="8" width="6.7777777777777803"/>
-    <col customWidth="1" min="9" max="9" width="9.8888888888888893"/>
-    <col customWidth="1" min="10" max="10" width="9.3333333333333304"/>
-    <col customWidth="1" min="11" max="11" width="7.1111111111111098"/>
-    <col customWidth="1" min="12" max="12" width="10.7777777777778"/>
-    <col customWidth="1" min="14" max="14" width="11.7777777777778"/>
-    <col customWidth="1" min="15" max="15" width="10.1111111111111"/>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" customWidth="1"/>
+    <col min="8" max="8" width="6.77734375" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" customWidth="1"/>
+    <col min="12" max="12" width="10.77734375" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75">
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-    </row>
-    <row r="2" ht="15">
+      <c r="B1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" ht="15">
+      <c r="C2" s="54"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" ht="15.75">
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="E4" s="6" t="s">
+      <c r="C4" s="6"/>
+      <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="11"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" ht="8.25" hidden="1" customHeight="1">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="10"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" ht="42" customHeight="1">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="14" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="L7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="18" t="s">
+      <c r="N7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="19"/>
-    </row>
-    <row r="8" ht="15.75">
-      <c r="A8" s="14">
+      <c r="O7" s="18"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
         <v>7119</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21">
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20">
         <f t="shared" ref="G8:G37" si="0">E8+F8</f>
         <v>0</v>
       </c>
-      <c r="H8" s="22">
-        <v>27.420000000000002</v>
-      </c>
-      <c r="I8" s="23">
+      <c r="H8" s="21">
+        <v>27.42</v>
+      </c>
+      <c r="I8" s="22">
         <f t="shared" ref="I8:I37" si="1">G8*H8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="22">
+      <c r="J8" s="23"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="21">
         <f t="shared" ref="L8:L41" si="2">14.5*K8</f>
         <v>0</v>
       </c>
-      <c r="M8" s="25">
-        <v>98.040000000000006</v>
-      </c>
-      <c r="N8" s="23">
+      <c r="M8" s="24">
+        <v>98.04</v>
+      </c>
+      <c r="N8" s="22">
         <f t="shared" ref="N8:N37" si="3">I8+J8+L8+M8</f>
-        <v>98.040000000000006</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75">
-      <c r="A9" s="14">
+        <v>98.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
         <v>7162</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="21">
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="22">
-        <v>26.109999999999999</v>
-      </c>
-      <c r="I9" s="23">
+      <c r="H9" s="21">
+        <v>26.11</v>
+      </c>
+      <c r="I9" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="28"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22">
+      <c r="J9" s="27"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M9" s="25">
-        <v>72.129999999999995</v>
-      </c>
-      <c r="N9" s="23">
+      <c r="M9" s="24">
+        <v>72.13</v>
+      </c>
+      <c r="N9" s="22">
         <f t="shared" si="3"/>
-        <v>72.129999999999995</v>
-      </c>
-      <c r="P9" s="29"/>
-    </row>
-    <row r="10" ht="15.75">
-      <c r="A10" s="14">
+        <v>72.13</v>
+      </c>
+      <c r="P9" s="28"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
         <v>7103</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="21">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="30">
-        <v>21.890000000000001</v>
-      </c>
-      <c r="I10" s="23">
+      <c r="H10" s="29">
+        <v>21.89</v>
+      </c>
+      <c r="I10" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22">
+      <c r="J10" s="27"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M10" s="31">
-        <v>36.060000000000002</v>
-      </c>
-      <c r="N10" s="23">
+      <c r="M10" s="30">
+        <v>36.06</v>
+      </c>
+      <c r="N10" s="22">
         <f t="shared" si="3"/>
-        <v>36.060000000000002</v>
-      </c>
-      <c r="P10" s="29"/>
-    </row>
-    <row r="11" ht="15.75">
-      <c r="A11" s="14">
+        <v>36.06</v>
+      </c>
+      <c r="P10" s="28"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
         <v>7107</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="21">
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="30">
-        <v>21.890000000000001</v>
-      </c>
-      <c r="I11" s="23">
+      <c r="H11" s="29">
+        <v>21.89</v>
+      </c>
+      <c r="I11" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="28"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="22">
+      <c r="J11" s="27"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M11" s="31"/>
-      <c r="N11" s="23">
+      <c r="M11" s="30"/>
+      <c r="N11" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P11" s="29"/>
-    </row>
-    <row r="12" ht="15.75">
-      <c r="A12" s="14">
+      <c r="P11" s="28"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
         <v>7120</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21">
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="29">
         <v>20.41</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J12" s="28"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="22">
+      <c r="J12" s="27"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M12" s="31"/>
-      <c r="N12" s="23">
+      <c r="M12" s="30"/>
+      <c r="N12" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="15.75">
-      <c r="A13" s="14">
+    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
         <v>7127</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="21">
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="21">
         <v>18.66</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="28"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="22">
+      <c r="J13" s="27"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M13" s="31"/>
-      <c r="N13" s="23">
+      <c r="M13" s="30"/>
+      <c r="N13" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P13" s="29"/>
-    </row>
-    <row r="14" ht="15.75">
-      <c r="A14" s="14">
+      <c r="P13" s="28"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
         <v>7132</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21">
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="21">
         <v>18.66</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="24"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="22">
+      <c r="J14" s="23"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M14" s="25"/>
-      <c r="N14" s="23">
+      <c r="M14" s="24"/>
+      <c r="N14" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="15.75">
-      <c r="A15" s="14">
+    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
         <v>7133</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="21">
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="21">
         <v>18.66</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="22">
+      <c r="J15" s="27"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M15" s="31"/>
-      <c r="N15" s="23">
+      <c r="M15" s="30"/>
+      <c r="N15" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P15" s="29"/>
-    </row>
-    <row r="16" ht="15.75">
-      <c r="A16" s="14">
+      <c r="P15" s="28"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
         <v>7142</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21">
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="22">
-        <v>16.449999999999999</v>
-      </c>
-      <c r="I16" s="23">
+      <c r="H16" s="21">
+        <v>16.45</v>
+      </c>
+      <c r="I16" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J16" s="28"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="22">
+      <c r="J16" s="27"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M16" s="31"/>
-      <c r="N16" s="23">
+      <c r="M16" s="30"/>
+      <c r="N16" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="15.75">
-      <c r="A17" s="14">
+    <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
         <v>7152</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="21">
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="20">
         <f>E17+F17</f>
         <v>0</v>
       </c>
-      <c r="H17" s="22">
-        <v>16.449999999999999</v>
-      </c>
-      <c r="I17" s="23">
+      <c r="H17" s="21">
+        <v>16.45</v>
+      </c>
+      <c r="I17" s="22">
         <f>G17*H17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="28"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="22">
+      <c r="J17" s="27"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M17" s="31"/>
-      <c r="N17" s="23">
+      <c r="M17" s="30"/>
+      <c r="N17" s="22">
         <f>I17+J17+L17+M17</f>
         <v>0</v>
       </c>
-      <c r="P17" s="29"/>
-    </row>
-    <row r="18" ht="15.75">
-      <c r="A18" s="14">
+      <c r="P17" s="28"/>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
         <v>7185</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21">
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="22">
-        <v>26.109999999999999</v>
-      </c>
-      <c r="I18" s="23">
+      <c r="H18" s="21">
+        <v>26.11</v>
+      </c>
+      <c r="I18" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J18" s="28"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="22">
+      <c r="J18" s="27"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="21">
         <f>16.44*K18</f>
         <v>0</v>
       </c>
-      <c r="M18" s="25">
-        <v>72.129999999999995</v>
-      </c>
-      <c r="N18" s="23">
+      <c r="M18" s="24">
+        <v>72.13</v>
+      </c>
+      <c r="N18" s="22">
         <f t="shared" si="3"/>
-        <v>72.129999999999995</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75">
-      <c r="A19" s="14">
+        <v>72.13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
         <v>7117</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21">
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="29">
         <v>20.41</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J19" s="24"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="22">
+      <c r="J19" s="23"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M19" s="31">
-        <v>36.060000000000002</v>
-      </c>
-      <c r="N19" s="23">
+      <c r="M19" s="30">
+        <v>36.06</v>
+      </c>
+      <c r="N19" s="22">
         <f t="shared" si="3"/>
-        <v>36.060000000000002</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75">
-      <c r="A20" s="14">
+        <v>36.06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
         <v>7166</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21">
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20" s="22">
-        <v>23.399999999999999</v>
-      </c>
-      <c r="I20" s="23">
+      <c r="H20" s="21">
+        <v>23.4</v>
+      </c>
+      <c r="I20" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J20" s="24"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="22">
+      <c r="J20" s="23"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M20" s="25"/>
-      <c r="N20" s="23">
+      <c r="M20" s="24"/>
+      <c r="N20" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="15.75">
-      <c r="A21" s="14">
+    <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
         <v>7177</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="21">
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20">
         <f>E21+F21</f>
         <v>0</v>
       </c>
-      <c r="H21" s="22">
-        <v>23.399999999999999</v>
-      </c>
-      <c r="I21" s="23">
+      <c r="H21" s="21">
+        <v>23.4</v>
+      </c>
+      <c r="I21" s="22">
         <f>G21*H21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="28"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="22">
+      <c r="J21" s="27"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M21" s="31"/>
-      <c r="N21" s="23">
+      <c r="M21" s="30"/>
+      <c r="N21" s="22">
         <f>I21+J21+L21+M21</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="15.75">
-      <c r="A22" s="14">
+    <row r="22" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
         <v>7128</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="21">
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H22" s="21">
         <v>18.66</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J22" s="24"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="22">
+      <c r="J22" s="23"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M22" s="25"/>
-      <c r="N22" s="23">
+      <c r="M22" s="24"/>
+      <c r="N22" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="15.75">
-      <c r="A23" s="14">
+    <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
         <v>7134</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="21">
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20">
         <f t="shared" ref="G23:G24" si="4">E23+F23</f>
         <v>0</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="21">
         <v>18.66</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="22">
         <f t="shared" ref="I23:I24" si="5">G23*H23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="25"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="22">
+      <c r="J23" s="24"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="21">
         <f t="shared" ref="L23:L24" si="6">14.5*K23</f>
         <v>0</v>
       </c>
-      <c r="M23" s="32"/>
-      <c r="N23" s="23">
+      <c r="M23" s="31"/>
+      <c r="N23" s="22">
         <f t="shared" ref="N23:N24" si="7">I23+J23+L23+M23</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="15.75">
-      <c r="A24" s="14">
+    <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
         <v>7135</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="21">
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H24" s="30">
-        <v>16.449999999999999</v>
-      </c>
-      <c r="I24" s="23">
+      <c r="H24" s="29">
+        <v>16.45</v>
+      </c>
+      <c r="I24" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J24" s="24"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="22">
+      <c r="J24" s="23"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M24" s="25"/>
-      <c r="N24" s="23">
+      <c r="M24" s="24"/>
+      <c r="N24" s="22">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="15.75">
-      <c r="A25" s="14">
+    <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
         <v>7139</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="21">
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H25" s="30">
-        <v>16.449999999999999</v>
-      </c>
-      <c r="I25" s="23">
+      <c r="H25" s="29">
+        <v>16.45</v>
+      </c>
+      <c r="I25" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J25" s="24"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="22">
+      <c r="J25" s="23"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M25" s="25"/>
-      <c r="N25" s="23">
+      <c r="M25" s="24"/>
+      <c r="N25" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="15.75">
-      <c r="A26" s="14">
+    <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
         <v>7140</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="21">
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="20">
         <f>E26+F26</f>
         <v>0</v>
       </c>
-      <c r="H26" s="30">
-        <v>16.449999999999999</v>
-      </c>
-      <c r="I26" s="23">
+      <c r="H26" s="29">
+        <v>16.45</v>
+      </c>
+      <c r="I26" s="22">
         <f>G26*H26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="24"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="22">
+      <c r="J26" s="23"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M26" s="25"/>
-      <c r="N26" s="23">
+      <c r="M26" s="24"/>
+      <c r="N26" s="22">
         <f>I26+J26+L26+M26</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="15.75">
-      <c r="A27" s="14">
+    <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
         <v>7184</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="21">
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H27" s="22">
-        <v>26.109999999999999</v>
-      </c>
-      <c r="I27" s="23">
+      <c r="H27" s="21">
+        <v>26.11</v>
+      </c>
+      <c r="I27" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J27" s="24"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="22">
+      <c r="J27" s="23"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="21">
         <f>18.37*K27</f>
         <v>0</v>
       </c>
-      <c r="M27" s="25">
-        <v>72.129999999999995</v>
-      </c>
-      <c r="N27" s="23">
+      <c r="M27" s="24">
+        <v>72.13</v>
+      </c>
+      <c r="N27" s="22">
         <f t="shared" si="3"/>
-        <v>72.129999999999995</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75">
-      <c r="A28" s="14">
+        <v>72.13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
         <v>7182</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="21">
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H28" s="22">
-        <v>23.399999999999999</v>
-      </c>
-      <c r="I28" s="23">
+      <c r="H28" s="21">
+        <v>23.4</v>
+      </c>
+      <c r="I28" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J28" s="28"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="22">
+      <c r="J28" s="27"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M28" s="31">
-        <v>36.060000000000002</v>
-      </c>
-      <c r="N28" s="23">
+      <c r="M28" s="30">
+        <v>36.06</v>
+      </c>
+      <c r="N28" s="22">
         <f t="shared" si="3"/>
-        <v>36.060000000000002</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75">
-      <c r="A29" s="14">
+        <v>36.06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
         <v>7148</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="21">
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H29" s="22">
-        <v>23.399999999999999</v>
-      </c>
-      <c r="I29" s="23">
+      <c r="H29" s="21">
+        <v>23.4</v>
+      </c>
+      <c r="I29" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J29" s="28"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="22">
+      <c r="J29" s="27"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M29" s="31"/>
-      <c r="N29" s="23">
+      <c r="M29" s="30"/>
+      <c r="N29" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="15.75">
-      <c r="A30" s="14">
+    <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
         <v>7111</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="21">
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20">
         <f t="shared" ref="G30:G31" si="8">E30+F30</f>
         <v>0</v>
       </c>
-      <c r="H30" s="30">
+      <c r="H30" s="29">
         <v>18.66</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I30" s="22">
         <f t="shared" ref="I30:I31" si="9">G30*H30</f>
         <v>0</v>
       </c>
-      <c r="J30" s="28"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="22">
+      <c r="J30" s="27"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M30" s="31"/>
-      <c r="N30" s="23">
+      <c r="M30" s="30"/>
+      <c r="N30" s="22">
         <f t="shared" ref="N30:N31" si="10">I30+J30+L30+M30</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="15.75">
-      <c r="A31" s="14">
+    <row r="31" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
         <v>7116</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="21">
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="20">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H31" s="30">
+      <c r="H31" s="29">
         <v>20.41</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J31" s="28"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="22">
+      <c r="J31" s="27"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="21">
         <f>14.5*K31</f>
         <v>0</v>
       </c>
-      <c r="M31" s="31"/>
-      <c r="N31" s="23">
+      <c r="M31" s="30"/>
+      <c r="N31" s="22">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="15.75">
-      <c r="A32" s="14">
+    <row r="32" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
         <v>7114</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="21">
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H32" s="30">
+      <c r="H32" s="29">
         <v>20.41</v>
       </c>
-      <c r="I32" s="23">
+      <c r="I32" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J32" s="24"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="22">
+      <c r="J32" s="23"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M32" s="25"/>
-      <c r="N32" s="23">
+      <c r="M32" s="24"/>
+      <c r="N32" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="15.75">
-      <c r="A33" s="14">
+    <row r="33" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
         <v>7141</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="21">
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H33" s="30">
-        <v>16.449999999999999</v>
-      </c>
-      <c r="I33" s="23">
+      <c r="H33" s="29">
+        <v>16.45</v>
+      </c>
+      <c r="I33" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J33" s="28"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="22">
+      <c r="J33" s="27"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M33" s="31"/>
-      <c r="N33" s="23">
+      <c r="M33" s="30"/>
+      <c r="N33" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="15.75">
-      <c r="A34" s="14">
+    <row r="34" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
         <v>7146</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="21">
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H34" s="30">
-        <v>16.449999999999999</v>
-      </c>
-      <c r="I34" s="23">
+      <c r="H34" s="29">
+        <v>16.45</v>
+      </c>
+      <c r="I34" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J34" s="28"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="22">
+      <c r="J34" s="27"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M34" s="31"/>
-      <c r="N34" s="23">
+      <c r="M34" s="30"/>
+      <c r="N34" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="15.75">
-      <c r="A35" s="14"/>
-      <c r="B35" s="6" t="s">
+    <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="21">
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H35" s="22"/>
-      <c r="I35" s="23">
+      <c r="H35" s="21"/>
+      <c r="I35" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J35" s="28"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="22">
+      <c r="J35" s="27"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M35" s="31"/>
-      <c r="N35" s="23">
+      <c r="M35" s="30"/>
+      <c r="N35" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="15.75">
-      <c r="A36" s="14">
+    <row r="36" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
         <v>7115</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="21">
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H36" s="22">
-        <v>23.399999999999999</v>
-      </c>
-      <c r="I36" s="23">
+      <c r="H36" s="21">
+        <v>23.4</v>
+      </c>
+      <c r="I36" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J36" s="24"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="22">
+      <c r="J36" s="23"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M36" s="25"/>
-      <c r="N36" s="23">
+      <c r="M36" s="24"/>
+      <c r="N36" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="15.75">
-      <c r="A37" s="14">
+    <row r="37" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
         <v>7151</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="21">
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H37" s="22">
-        <v>23.399999999999999</v>
-      </c>
-      <c r="I37" s="23">
+      <c r="H37" s="21">
+        <v>23.4</v>
+      </c>
+      <c r="I37" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J37" s="24"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="22">
+      <c r="J37" s="23"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M37" s="25"/>
-      <c r="N37" s="23">
+      <c r="M37" s="24"/>
+      <c r="N37" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="15.75">
-      <c r="A38" s="14">
+    <row r="38" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
         <v>7136</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="21">
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="20">
         <f t="shared" ref="G38:G42" si="11">E38+F38</f>
         <v>0</v>
       </c>
-      <c r="H38" s="22">
+      <c r="H38" s="21">
         <v>16.440000000000001</v>
       </c>
-      <c r="I38" s="23">
+      <c r="I38" s="22">
         <f t="shared" ref="I38:I42" si="12">G38*H38</f>
         <v>0</v>
       </c>
-      <c r="J38" s="24"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="22">
+      <c r="J38" s="23"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="21">
         <f>16.44*K38</f>
         <v>0</v>
       </c>
-      <c r="M38" s="25"/>
-      <c r="N38" s="23">
+      <c r="M38" s="24"/>
+      <c r="N38" s="22">
         <f t="shared" ref="N38:N42" si="13">I38+J38+L38+M38</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="15.75">
-      <c r="A39" s="14">
+    <row r="39" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
         <v>7144</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="21">
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H39" s="22">
+      <c r="H39" s="21">
         <v>14.5</v>
       </c>
-      <c r="I39" s="23">
+      <c r="I39" s="22">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J39" s="24"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="22">
+      <c r="J39" s="23"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="21">
         <f t="shared" ref="L39:L40" si="14">14.5*K39</f>
         <v>0</v>
       </c>
-      <c r="M39" s="25"/>
-      <c r="N39" s="23">
+      <c r="M39" s="24"/>
+      <c r="N39" s="22">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" ht="15.75">
-      <c r="A40" s="14">
+    <row r="40" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
         <v>7143</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="21">
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H40" s="22">
+      <c r="H40" s="21">
         <v>14.5</v>
       </c>
-      <c r="I40" s="23">
+      <c r="I40" s="22">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J40" s="24"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="22">
+      <c r="J40" s="23"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="21">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M40" s="25"/>
-      <c r="N40" s="23">
+      <c r="M40" s="24"/>
+      <c r="N40" s="22">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="15.75">
-      <c r="A41" s="14">
+    <row r="41" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
         <v>7150</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="21">
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H41" s="22">
+      <c r="H41" s="21">
         <v>14.5</v>
       </c>
-      <c r="I41" s="23">
+      <c r="I41" s="22">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J41" s="24"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="22">
+      <c r="J41" s="23"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M41" s="25"/>
-      <c r="N41" s="23">
+      <c r="M41" s="24"/>
+      <c r="N41" s="22">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="15.75">
-      <c r="A42" s="14">
+    <row r="42" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="13">
         <v>7149</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="21">
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H42" s="22">
+      <c r="H42" s="21">
         <v>14.5</v>
       </c>
-      <c r="I42" s="23">
+      <c r="I42" s="22">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J42" s="24"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="22">
+      <c r="J42" s="23"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="21">
         <f>14.5*K42</f>
         <v>0</v>
       </c>
-      <c r="M42" s="25"/>
-      <c r="N42" s="23">
+      <c r="M42" s="24"/>
+      <c r="N42" s="22">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" ht="16.5">
+    <row r="43" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="34"/>
-      <c r="D43" s="35"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="34"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="20"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="19"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
-      <c r="K43" s="20"/>
+      <c r="K43" s="19"/>
       <c r="L43" s="3"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="23"/>
-    </row>
-    <row r="44" ht="16.5">
-      <c r="A44" s="37"/>
-      <c r="B44" s="38" t="s">
+      <c r="M43" s="35"/>
+      <c r="N43" s="22"/>
+    </row>
+    <row r="44" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="36"/>
+      <c r="B44" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="39"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="43" t="s">
+      <c r="C44" s="38"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="I44" s="44">
+      <c r="I44" s="43">
         <f>SUM(G44*0)</f>
         <v>0</v>
       </c>
-      <c r="J44" s="45"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="45"/>
-      <c r="M44" s="46"/>
-      <c r="N44" s="23"/>
-    </row>
-    <row r="45" ht="15.75">
-      <c r="A45" s="37"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="45"/>
+      <c r="N44" s="22"/>
+    </row>
+    <row r="45" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="36"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38" t="s">
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="I45" s="47">
+      <c r="I45" s="46">
         <f>SUM(I8:I43)</f>
         <v>0</v>
       </c>
-      <c r="J45" s="47">
+      <c r="J45" s="46">
         <f>SUM(J8:J37)</f>
         <v>0</v>
       </c>
-      <c r="K45" s="38"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="31">
+      <c r="K45" s="37"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="30">
         <f>SUM(M8:M44)</f>
-        <v>422.61000000000001</v>
-      </c>
-      <c r="N45" s="23">
+        <v>422.61</v>
+      </c>
+      <c r="N45" s="22">
         <f>SUM(N8:N44)</f>
-        <v>422.61000000000001</v>
-      </c>
-    </row>
-    <row r="46" ht="15">
+        <v>422.61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -3140,9 +2878,9 @@
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" ht="15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
-      <c r="B47" s="12"/>
+      <c r="B47" s="11"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -3157,11 +2895,11 @@
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" ht="15">
-      <c r="A48" s="12"/>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" s="11"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="12"/>
+      <c r="D48" s="11"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -3174,14 +2912,14 @@
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" ht="15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>7001</v>
       </c>
-      <c r="B49" s="48" t="s">
+      <c r="B49" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="48" t="s">
+      <c r="C49" s="47" t="s">
         <v>88</v>
       </c>
       <c r="D49" s="3"/>
@@ -3197,7 +2935,7 @@
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" ht="15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>7005</v>
       </c>
@@ -3220,7 +2958,7 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" ht="15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>7003</v>
       </c>
@@ -3242,7 +2980,7 @@
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" ht="15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>7002</v>
       </c>
@@ -3253,7 +2991,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" ht="15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>7004</v>
       </c>
@@ -3264,7 +3002,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" ht="15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>7006</v>
       </c>
@@ -3275,7 +3013,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" ht="15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>7007</v>
       </c>
@@ -3283,10 +3021,10 @@
         <v>97</v>
       </c>
       <c r="C55" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" ht="15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>7009</v>
       </c>
@@ -3297,55 +3035,55 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" ht="15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>7010</v>
       </c>
-      <c r="B57" s="48" t="s">
+      <c r="B57" s="47" t="s">
         <v>99</v>
       </c>
       <c r="C57" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="58" ht="15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
     </row>
-    <row r="63" ht="15.75">
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-    </row>
-    <row r="64" ht="15.75">
+    <row r="63" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+    </row>
+    <row r="64" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
-      <c r="G64" s="49"/>
-      <c r="H64" s="50"/>
-      <c r="I64" s="51"/>
-      <c r="J64" s="52"/>
-      <c r="K64" s="52"/>
-      <c r="L64" s="52"/>
-      <c r="M64" s="36"/>
-      <c r="N64" s="51"/>
-    </row>
-    <row r="68" ht="15.75">
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-    </row>
-    <row r="69" ht="15.75">
+      <c r="G64" s="48"/>
+      <c r="H64" s="49"/>
+      <c r="I64" s="50"/>
+      <c r="J64" s="51"/>
+      <c r="K64" s="51"/>
+      <c r="L64" s="51"/>
+      <c r="M64" s="35"/>
+      <c r="N64" s="50"/>
+    </row>
+    <row r="68" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+    </row>
+    <row r="69" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="50"/>
-      <c r="I69" s="51"/>
-      <c r="J69" s="52"/>
-      <c r="K69" s="52"/>
-      <c r="L69" s="52"/>
-      <c r="M69" s="36"/>
-      <c r="N69" s="51"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="49"/>
+      <c r="I69" s="50"/>
+      <c r="J69" s="51"/>
+      <c r="K69" s="51"/>
+      <c r="L69" s="51"/>
+      <c r="M69" s="35"/>
+      <c r="N69" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3354,41 +3092,36 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
   </mergeCells>
-  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0" right="0" top="1" bottom="0.5" header="0.5" footer="0.5"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="landscape" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
+  <pageSetup orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>